--- a/SimulationStudyData/Model5/SimCase29_Zsim_SimRun5.xlsx
+++ b/SimulationStudyData/Model5/SimCase29_Zsim_SimRun5.xlsx
@@ -410,36 +410,36 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -457,24 +457,24 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -486,51 +486,51 @@
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -582,19 +582,19 @@
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -608,25 +608,25 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -652,33 +652,33 @@
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -707,13 +707,13 @@
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -759,34 +759,34 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -823,34 +823,34 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -887,34 +887,34 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -951,22 +951,22 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -983,34 +983,34 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1027,22 +1027,22 @@
         <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1111,39 +1111,39 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -1210,45 +1210,45 @@
         <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1303,25 +1303,25 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1338,13 +1338,13 @@
         <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -1367,22 +1367,22 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1420,13 +1420,13 @@
         <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1490,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1516,13 +1516,13 @@
         <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1559,34 +1559,34 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1655,7 +1655,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
         <v>2</v>
@@ -1687,16 +1687,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
         <v>2</v>
@@ -1708,13 +1708,13 @@
         <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1725,28 +1725,28 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1754,31 +1754,31 @@
         <v>2</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1789,13 +1789,13 @@
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
         <v>2</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" t="n">
         <v>2</v>
@@ -1847,13 +1847,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -1958,51 +1958,51 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2135,34 +2135,34 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2170,31 +2170,31 @@
         <v>2</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2211,22 +2211,22 @@
         <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2275,16 +2275,16 @@
         <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -2295,13 +2295,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>2</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
         <v>2</v>
@@ -2365,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -2394,48 +2394,48 @@
         <v>2</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
@@ -2464,25 +2464,25 @@
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2502,19 +2502,19 @@
         <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2528,25 +2528,25 @@
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2566,19 +2566,19 @@
         <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -2615,31 +2615,31 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -2647,34 +2647,34 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -2697,48 +2697,48 @@
         <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2775,19 +2775,19 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
@@ -2839,66 +2839,66 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2915,22 +2915,22 @@
         <v>2</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2985,16 +2985,16 @@
         <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3002,28 +3002,28 @@
         <v>2</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
         <v>2</v>
@@ -3104,54 +3104,54 @@
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -3186,7 +3186,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3223,25 +3223,25 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" t="n">
         <v>2</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>1</v>
@@ -3255,34 +3255,34 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3293,25 +3293,25 @@
         <v>2</v>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
@@ -3331,54 +3331,54 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -3424,89 +3424,89 @@
         <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3543,34 +3543,34 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -3607,25 +3607,25 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
@@ -3674,89 +3674,89 @@
         <v>2</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -3782,51 +3782,51 @@
         <v>2</v>
       </c>
       <c r="F107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -3834,28 +3834,28 @@
         <v>2</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J109" t="n">
         <v>2</v>
@@ -3863,34 +3863,34 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -3907,7 +3907,7 @@
         <v>2</v>
       </c>
       <c r="E111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
         <v>1</v>
@@ -3991,28 +3991,28 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -4023,16 +4023,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
         <v>1</v>
@@ -4087,39 +4087,39 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
@@ -4151,16 +4151,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
         <v>1</v>
@@ -4183,22 +4183,22 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4215,25 +4215,25 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H121" t="n">
         <v>1</v>
@@ -4282,31 +4282,31 @@
         <v>2</v>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -4314,7 +4314,7 @@
         <v>2</v>
       </c>
       <c r="B124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -4343,31 +4343,31 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="n">
         <v>2</v>
@@ -4375,34 +4375,34 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -4439,34 +4439,34 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -4477,28 +4477,28 @@
         <v>2</v>
       </c>
       <c r="C129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -4521,45 +4521,45 @@
         <v>2</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="n">
         <v>1</v>
@@ -4567,10 +4567,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
@@ -4599,34 +4599,34 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -4663,31 +4663,31 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="n">
         <v>1</v>
@@ -4754,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -4786,7 +4786,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -4797,28 +4797,28 @@
         <v>2</v>
       </c>
       <c r="C139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -4829,28 +4829,28 @@
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -4882,7 +4882,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -4919,31 +4919,31 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
@@ -4951,34 +4951,34 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -4986,7 +4986,7 @@
         <v>2</v>
       </c>
       <c r="B145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
@@ -5036,13 +5036,13 @@
         <v>2</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -5053,16 +5053,16 @@
         <v>2</v>
       </c>
       <c r="C147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -5100,13 +5100,13 @@
         <v>2</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -5138,18 +5138,18 @@
         <v>2</v>
       </c>
       <c r="J149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -5207,66 +5207,66 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -5283,7 +5283,7 @@
         <v>2</v>
       </c>
       <c r="E154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
         <v>1</v>
@@ -5303,31 +5303,31 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H155" t="n">
         <v>1</v>
       </c>
       <c r="I155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
         <v>1</v>
@@ -5344,7 +5344,7 @@
         <v>2</v>
       </c>
       <c r="D156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
         <v>1</v>
@@ -5373,25 +5373,25 @@
         <v>2</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="n">
         <v>1</v>
@@ -5399,16 +5399,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
         <v>1</v>
@@ -5463,19 +5463,19 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F160" t="n">
         <v>2</v>
@@ -5591,16 +5591,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164" t="n">
         <v>1</v>
@@ -5632,13 +5632,13 @@
         <v>2</v>
       </c>
       <c r="D165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -5655,34 +5655,34 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -5751,31 +5751,31 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J169" t="n">
         <v>1</v>
@@ -5795,22 +5795,22 @@
         <v>2</v>
       </c>
       <c r="E170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -5833,16 +5833,16 @@
         <v>2</v>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -5856,25 +5856,25 @@
         <v>2</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -5888,25 +5888,25 @@
         <v>2</v>
       </c>
       <c r="D173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -5917,60 +5917,60 @@
         <v>2</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -6013,28 +6013,28 @@
         <v>2</v>
       </c>
       <c r="C177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -6208,13 +6208,13 @@
         <v>2</v>
       </c>
       <c r="D183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6263,34 +6263,34 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -6327,16 +6327,16 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
         <v>1</v>
@@ -6359,16 +6359,16 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E188" t="n">
         <v>1</v>
@@ -6394,31 +6394,31 @@
         <v>2</v>
       </c>
       <c r="B189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -6455,25 +6455,25 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H191" t="n">
         <v>1</v>
@@ -6487,10 +6487,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
@@ -6540,45 +6540,45 @@
         <v>2</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -6589,28 +6589,28 @@
         <v>2</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -6624,25 +6624,25 @@
         <v>2</v>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -6650,7 +6650,7 @@
         <v>2</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
@@ -6665,16 +6665,16 @@
         <v>1</v>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -6688,25 +6688,25 @@
         <v>2</v>
       </c>
       <c r="D198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -6729,10 +6729,10 @@
         <v>2</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
         <v>2</v>
@@ -6799,10 +6799,10 @@
         <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
